--- a/testreport/4 Confidence/uni_cat_sigtest/x4_Confidence_Which_of_the_following_universities_would_you_prefer_to_study_at_.xlsx
+++ b/testreport/4 Confidence/uni_cat_sigtest/x4_Confidence_Which_of_the_following_universities_would_you_prefer_to_study_at_.xlsx
@@ -402,7 +402,7 @@
         <v>1.9</v>
       </c>
       <c r="E2">
-        <v>0.496</v>
+        <v>0.502</v>
       </c>
     </row>
   </sheetData>
